--- a/_Release Schedule.xlsx
+++ b/_Release Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patwh\Documents\Lessons\Statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patwh\Documents\Lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF03A0C-F371-4548-9843-9CEBBC52FC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B51786-99A7-4F52-A901-7816143C6699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C7AA9BD1-B815-4B64-BE12-A7F1C4802FA1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>Statistics</t>
   </si>
@@ -80,12 +80,6 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>Hypothesis Testing IV - Statistical Power</t>
-  </si>
-  <si>
-    <t>Hypothesis Testing V - Effect Size</t>
-  </si>
-  <si>
     <t>11/06/2022</t>
   </si>
   <si>
@@ -101,18 +95,6 @@
     <t>VARMAX and Ensembling</t>
   </si>
   <si>
-    <t>11/20/2022</t>
-  </si>
-  <si>
-    <t>11/27/2022</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Classification</t>
-  </si>
-  <si>
     <t>Decision Trees</t>
   </si>
   <si>
@@ -144,6 +126,24 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>Estimation Statistics I - Statistical Power</t>
+  </si>
+  <si>
+    <t>Estimation Statistics II - Effect Size</t>
+  </si>
+  <si>
+    <t>Regression I - Linear and Penalized Regression</t>
+  </si>
+  <si>
+    <t>Classification I - Linear and Penalized Classification</t>
+  </si>
+  <si>
+    <t>Regression II - Nonlinear Regression Models</t>
+  </si>
+  <si>
+    <t>Classification II - Nonlinear Classification Models</t>
   </si>
 </sst>
 </file>
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D0C640-8BE7-4C77-9470-E86AA2B1622D}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,13 +529,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -579,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -642,10 +642,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -653,10 +653,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -664,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -675,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -697,7 +697,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -708,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -741,31 +741,31 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -774,9 +774,31 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
         <v>14</v>
       </c>
     </row>

--- a/_Release Schedule.xlsx
+++ b/_Release Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patwh\Documents\Lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B51786-99A7-4F52-A901-7816143C6699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7136E734-B57B-4EE9-BAC4-F7366A0199ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C7AA9BD1-B815-4B64-BE12-A7F1C4802FA1}"/>
+    <workbookView xWindow="1848" yWindow="48" windowWidth="12948" windowHeight="12312" xr2:uid="{C7AA9BD1-B815-4B64-BE12-A7F1C4802FA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t>Statistics</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Classification II - Nonlinear Classification Models</t>
+  </si>
+  <si>
+    <t>Feature Engineering</t>
+  </si>
+  <si>
+    <t>Spectral Decomposition</t>
   </si>
 </sst>
 </file>
@@ -514,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D0C640-8BE7-4C77-9470-E86AA2B1622D}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -730,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -741,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -752,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -763,20 +769,20 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -785,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -796,9 +802,31 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>14</v>
       </c>
     </row>

--- a/_Release Schedule.xlsx
+++ b/_Release Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patwh\Documents\Lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7136E734-B57B-4EE9-BAC4-F7366A0199ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0864F7D0-9A1D-41A3-AAFE-5CB3EEAD884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="48" windowWidth="12948" windowHeight="12312" xr2:uid="{C7AA9BD1-B815-4B64-BE12-A7F1C4802FA1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C7AA9BD1-B815-4B64-BE12-A7F1C4802FA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,7 +629,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -640,7 +640,7 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -651,7 +651,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">

--- a/_Release Schedule.xlsx
+++ b/_Release Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patwh\Documents\Lessons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0864F7D0-9A1D-41A3-AAFE-5CB3EEAD884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B401C2-A342-42AB-8DEF-8E0F28BD274D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C7AA9BD1-B815-4B64-BE12-A7F1C4802FA1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>Statistics</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Spectral Decomposition</t>
+  </si>
+  <si>
+    <t>11/20/2022</t>
+  </si>
+  <si>
+    <t>11/27/2022</t>
   </si>
 </sst>
 </file>
@@ -523,7 +529,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +657,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -662,7 +668,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -673,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -684,7 +690,7 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -783,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
